--- a/medicine/Psychotrope/André_Antoine_Pierre_Le_Gentil/André_Antoine_Pierre_Le_Gentil.xlsx
+++ b/medicine/Psychotrope/André_Antoine_Pierre_Le_Gentil/André_Antoine_Pierre_Le_Gentil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Antoine_Pierre_Le_Gentil</t>
+          <t>André_Antoine_Pierre_Le_Gentil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Antoine Pierre Le Gentil ou Dom Le Gentil est un religieux cistercien français, né en 1725[1] ou en 1728[2] et mort en 1800, qui s'est intéressé à l'agronomie et à la vinification[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Antoine Pierre Le Gentil ou Dom Le Gentil est un religieux cistercien français, né en 1725 ou en 1728 et mort en 1800, qui s'est intéressé à l'agronomie et à la vinification,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Antoine_Pierre_Le_Gentil</t>
+          <t>André_Antoine_Pierre_Le_Gentil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est prieur de l'abbaye cistercienne de Fontenay. Il est membre de plusieurs sociétés savantes, notamment la Société d'Agriculture d'Auch, l'Académie des sciences, arts et belles-lettres de Dijon dont il est vice-président en 1798[4], la Société royale des sciences de Montpellier, et membre correspondant de l'Académie des sciences de Paris[5]. 
-Le Gentil est l'auteur d'un mémoire sur la fermentation des vins, en réponse à un concours proposé par l'Académie de Montpellier, dont il obtient un accessit[3] : 
-Mémoire sur la question proposée par la Société Royale des Sciences de Montpellier au nom des États généraux de la province de Languedoc pour le sujet du prix de 1780 : « Déterminer, par un moyen fixe, simple et à la portée de tout cultivateur, le moment auquel le vin en fermentation dans la cuve aura acquis toute la force et toute la qualité dont il est susceptible », Montpellier, Jean Martel aîné, 1781[6]. L'ouvrage est republié à Paris en 1802[7].
-Un mémoire sur le café lui est aussi attribué : Dissertation sur le café et sur les moyens propres à prévenir les effets qui résultent de sa préparation communément vicieuse ; &amp; en rendre la boisson plus agréable &amp; plus salutaire, Paris, 1787, 177 p.[8], mais les indications données sur le titre de l'ouvrage ne sont pas concordantes[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est prieur de l'abbaye cistercienne de Fontenay. Il est membre de plusieurs sociétés savantes, notamment la Société d'Agriculture d'Auch, l'Académie des sciences, arts et belles-lettres de Dijon dont il est vice-président en 1798, la Société royale des sciences de Montpellier, et membre correspondant de l'Académie des sciences de Paris. 
+Le Gentil est l'auteur d'un mémoire sur la fermentation des vins, en réponse à un concours proposé par l'Académie de Montpellier, dont il obtient un accessit : 
+Mémoire sur la question proposée par la Société Royale des Sciences de Montpellier au nom des États généraux de la province de Languedoc pour le sujet du prix de 1780 : « Déterminer, par un moyen fixe, simple et à la portée de tout cultivateur, le moment auquel le vin en fermentation dans la cuve aura acquis toute la force et toute la qualité dont il est susceptible », Montpellier, Jean Martel aîné, 1781. L'ouvrage est republié à Paris en 1802.
+Un mémoire sur le café lui est aussi attribué : Dissertation sur le café et sur les moyens propres à prévenir les effets qui résultent de sa préparation communément vicieuse ; &amp; en rendre la boisson plus agréable &amp; plus salutaire, Paris, 1787, 177 p., mais les indications données sur le titre de l'ouvrage ne sont pas concordantes.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Antoine_Pierre_Le_Gentil</t>
+          <t>André_Antoine_Pierre_Le_Gentil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Procédé pour faire le vinaigre de petit lait, ou l'acide acéteux avec le petit lait, Dijon, imprimerie de Causse, 1787, 5 p.
 Dissertation sur le caffe et sur les moyens propres à prévenir les effets qui résultent de sa préparation communément vicieuse; &amp; en rendre la boisson plus agréable &amp; plus salutaire, Paris, Impr. de Quillau, Faculté de Medécine, 1787.</t>
